--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV083-001 until DPLKINV083-003 - Setup Mapping Jurnal Investasi Investasi - Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV083-001 until DPLKINV083-003 - Setup Mapping Jurnal Investasi Investasi - Approve Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF392C3-C895-4E8C-B8A4-C690850DC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582160CE-DAE9-4987-96F7-0D67708E5655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,88 +78,88 @@
     <t>DPLKINV083-001</t>
   </si>
   <si>
+    <t>Verifikasi - Setuju Setup Mapping Jurnal Investasi</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>KETERANGAN_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>1 : Setuju</t>
+  </si>
+  <si>
+    <t>DATA APPROVAL</t>
+  </si>
+  <si>
+    <t>DPLKINV083-002</t>
+  </si>
+  <si>
+    <t>Verifikasi - Batalkan Setup Mapping Jurnal Investasi</t>
+  </si>
+  <si>
+    <t>Batal Verifikasi dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>2 : Batalkan Verifikasi</t>
+  </si>
+  <si>
+    <t>DATA AKAN DIHAPUS</t>
+  </si>
+  <si>
+    <t>DPLKINV083-003</t>
+  </si>
+  <si>
+    <t>Data berhasil dikembalikan ke Register</t>
+  </si>
+  <si>
+    <t>Verifikasi - Kembalikan ke Register Setup Mapping Jurnal Investasi</t>
+  </si>
+  <si>
+    <t>0 : Kembalikan ke Register</t>
+  </si>
+  <si>
+    <t>DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>Dibatalkan Verifikasi</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasi;
-No. Urut : 1369;
+No. Urut : 2962;
 Status Verifikasi : 1 : Setuju;
 Keterangan Verifikasi : DATA APPROVAL</t>
-  </si>
-  <si>
-    <t>Verifikasi - Setuju Setup Mapping Jurnal Investasi</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFIKASI</t>
-  </si>
-  <si>
-    <t>KETERANGAN_VERIFIKASI</t>
-  </si>
-  <si>
-    <t>1 : Setuju</t>
-  </si>
-  <si>
-    <t>DATA APPROVAL</t>
-  </si>
-  <si>
-    <t>DPLKINV083-002</t>
   </si>
   <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasi;
-No. Urut : 1369;
+No. Urut : 2962;
 Status Verifikasi : 2 : Batalkan Verifikasi;
 Keterangan Verifikasi : DATA AKAN DIHAPUS</t>
-  </si>
-  <si>
-    <t>Verifikasi - Batalkan Setup Mapping Jurnal Investasi</t>
-  </si>
-  <si>
-    <t>Batal Verifikasi dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>2 : Batalkan Verifikasi</t>
-  </si>
-  <si>
-    <t>DATA AKAN DIHAPUS</t>
-  </si>
-  <si>
-    <t>DPLKINV083-003</t>
   </si>
   <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasi;
-No. Urut : 1369;
+No. Urut : 2962;
 Status Verifikasi : 0 : Kembalikan ke Register;
 Keterangan Verifikasi : DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>Data berhasil dikembalikan ke Register</t>
-  </si>
-  <si>
-    <t>Verifikasi - Kembalikan ke Register Setup Mapping Jurnal Investasi</t>
-  </si>
-  <si>
-    <t>0 : Kembalikan ke Register</t>
-  </si>
-  <si>
-    <t>DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Register</t>
-  </si>
-  <si>
-    <t>Dibatalkan Verifikasi</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,13 +622,13 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="105" x14ac:dyDescent="0.25">
@@ -642,13 +642,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
@@ -666,16 +666,16 @@
         <v>15</v>
       </c>
       <c r="L2" s="4">
-        <v>1369</v>
+        <v>2962</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -753,7 +753,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,13 +813,13 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -827,19 +827,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
@@ -857,16 +857,16 @@
         <v>15</v>
       </c>
       <c r="L2" s="4">
-        <v>1369</v>
+        <v>2962</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32D54D0-0E84-4E63-8AE5-AF5485E9FD73}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -953,19 +953,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4">
         <v>32070</v>
@@ -983,16 +983,16 @@
         <v>15</v>
       </c>
       <c r="L2" s="4">
-        <v>1369</v>
+        <v>2962</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
